--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1983596.701741405</v>
+        <v>2080266.678225779</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836233</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>353.5759586385877</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>54.27685211473119</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>11.67884460201102</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>44.64130008435401</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>307.9895902233671</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>133.9566202902064</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>195.5259221771827</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>264.3862503229323</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>411.6129812535992</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>112.8566199863818</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>201.0891638436807</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.831980181941</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>78.444077396778</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>70.82764119510642</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>6.380068175844102</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292724</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>112.7956618595017</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>199.3654827743552</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>201.360032484281</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>43.54171107304271</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>17.41027617551688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2770,13 +2772,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>158.1837596300281</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.3165365479907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>13.89072837997162</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>114.2656173771023</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>52.70548389690133</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>156.9637428177507</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3557,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3715,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>196.9899243971808</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292626</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247757</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734101046</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>116.4485994866771</v>
       </c>
       <c r="I43" t="n">
-        <v>19.24672640396856</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292626</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247757</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734101046</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>15.0743711067551</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T46" t="n">
-        <v>98.80399951402478</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>1264.912517821975</v>
       </c>
       <c r="E2" t="n">
-        <v>1309.714918859356</v>
+        <v>1264.912517821975</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>853.9266130323679</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>435.9628049305547</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>108.7680849665576</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,7 +4412,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4510,25 +4512,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>716.3321714771301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>502.0437482952929</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>274.7355609638946</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>274.7355609638946</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.645612988121</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1408.645612988121</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="Y5" t="n">
-        <v>1408.645612988121</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>550.798971477663</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>403.9090239797526</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>234.9092237180851</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>234.9092237180851</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>382.4813941485145</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>382.4813941485145</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>382.4813941485145</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>382.4813941485145</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>382.4813941485145</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>382.4813941485145</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.4813941485145</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822952</v>
+        <v>1624.753525949915</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1624.753525949915</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1266.487827343165</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>880.6995747449207</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>469.7136699553132</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4898,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4998,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>614.1323983616041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>614.1323983616041</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>614.1323983616041</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.339819218074</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5020,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
         <v>487.9678785494859</v>
@@ -5109,7 +5111,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.7429179653792</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C13" t="n">
-        <v>506.8067350374723</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>506.8067350374723</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
         <v>506.8067350374723</v>
@@ -5221,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1595.590682874131</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1595.590682874131</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V13" t="n">
-        <v>1595.590682874131</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W13" t="n">
-        <v>1306.17351283717</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X13" t="n">
-        <v>1078.183961939153</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y13" t="n">
-        <v>857.3913827956227</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="14">
@@ -5255,49 +5257,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2782.232616025903</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>3329.011433084685</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O14" t="n">
-        <v>3831.983903964022</v>
+        <v>3962.897130029547</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5306,22 +5308,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5361,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>481.6968904858347</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5509,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5528,13 +5530,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.4972173763014</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
         <v>95.56103444839442</v>
@@ -5692,31 +5694,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1949.898952795766</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1728.132337365293</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.029470490936</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1184.344982285049</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>894.9278122480886</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>666.9382613500712</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.1456822065411</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.557933208927</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972664</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193958</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420605</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107238</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468569</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,16 +5861,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>941.4904761572606</v>
+        <v>3086.205473691319</v>
       </c>
       <c r="C22" t="n">
-        <v>772.5542932293537</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="D22" t="n">
-        <v>622.4376538170179</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="E22" t="n">
-        <v>474.5245602346248</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839444</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953305</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442069</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927031</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.73316995219</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230348</v>
+        <v>4207.432514129719</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.556111024461</v>
+        <v>4006.053238600067</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.1389409875</v>
+        <v>3716.636068563106</v>
       </c>
       <c r="X22" t="n">
-        <v>1123.1389409875</v>
+        <v>3488.646517665089</v>
       </c>
       <c r="Y22" t="n">
-        <v>1123.1389409875</v>
+        <v>3267.853938521559</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5986,22 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>637.8590697562963</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1088.893283004705</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>1622.42518767663</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6063,7 +6065,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839444</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839444</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839444</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839444</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839444</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6172,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1752.949493898359</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423046</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6205,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6233,19 +6235,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6257,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089898</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6324,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,22 +6335,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.2453974100822</v>
+        <v>525.6262188911253</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>356.6900359632184</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>356.6900359632184</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>356.6900359632184</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>356.6900359632184</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6409,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X28" t="n">
-        <v>709.6864413838521</v>
+        <v>928.0672628648952</v>
       </c>
       <c r="Y28" t="n">
-        <v>488.8938622403219</v>
+        <v>707.274683721365</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6442,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
@@ -6464,19 +6466,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>876.6177432290272</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1741.136558882382</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3254.420735780953</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107236</v>
@@ -6494,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789526</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878962</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.2638710736754</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
@@ -6643,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>1604.876006547663</v>
       </c>
       <c r="X31" t="n">
-        <v>391.866433243363</v>
+        <v>1376.886455649646</v>
       </c>
       <c r="Y31" t="n">
-        <v>263.2638710736754</v>
+        <v>1156.093876506116</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001584</v>
@@ -6698,28 +6700,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.187565809179</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789527</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>278.5282561439494</v>
+        <v>3942.370854773035</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5920732160425</v>
+        <v>3773.434671845128</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>3623.318032432792</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>3475.404938850399</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>4572.801449644821</v>
       </c>
       <c r="U34" t="n">
-        <v>1453.060509258584</v>
+        <v>4572.801449644821</v>
       </c>
       <c r="V34" t="n">
-        <v>1198.376021052697</v>
+        <v>4572.801449644821</v>
       </c>
       <c r="W34" t="n">
-        <v>908.9588510157366</v>
+        <v>4572.801449644821</v>
       </c>
       <c r="X34" t="n">
-        <v>680.9693001177193</v>
+        <v>4344.811898746804</v>
       </c>
       <c r="Y34" t="n">
-        <v>460.1767209741892</v>
+        <v>4124.019319603274</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6920,7 +6922,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
@@ -6932,34 +6934,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>1897.676284104189</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6971,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7020,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7047,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.0445975595949</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C37" t="n">
-        <v>560.0445975595949</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>560.0445975595949</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>560.0445975595949</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7099,46 +7101,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927061</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892255</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518533</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952193</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862235</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1707.96377369279</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1486.197158262316</v>
       </c>
       <c r="U37" t="n">
-        <v>1734.57685067423</v>
+        <v>1197.09429138796</v>
       </c>
       <c r="V37" t="n">
-        <v>1479.892362468343</v>
+        <v>942.4098031820731</v>
       </c>
       <c r="W37" t="n">
-        <v>1190.475192431382</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="X37" t="n">
-        <v>962.4856415333647</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y37" t="n">
-        <v>741.6930623898346</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7153,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7169,49 +7171,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>1770.231306037953</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2749.9835782646</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3629.948228594054</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4343.303316041</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7284,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7354,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.886711630049</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089252</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277722</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563071</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622695</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294618</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353399</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232735</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193578</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320222</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454337</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008798</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426851</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7521,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.6246893481011</v>
+        <v>529.0120128405522</v>
       </c>
       <c r="C43" t="n">
-        <v>727.6246893481011</v>
+        <v>360.0758299126453</v>
       </c>
       <c r="D43" t="n">
-        <v>577.5080499357654</v>
+        <v>360.0758299126453</v>
       </c>
       <c r="E43" t="n">
-        <v>429.5949563533723</v>
+        <v>360.0758299126453</v>
       </c>
       <c r="F43" t="n">
-        <v>282.7050088554619</v>
+        <v>213.1858824147349</v>
       </c>
       <c r="G43" t="n">
-        <v>115.0021722301808</v>
+        <v>213.1858824147349</v>
       </c>
       <c r="H43" t="n">
-        <v>115.0021722301808</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953297</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442057</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927013</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931526</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.657581931526</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1475.55471505717</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1220.870226851283</v>
       </c>
       <c r="W43" t="n">
-        <v>909.2731541783409</v>
+        <v>931.4530568143221</v>
       </c>
       <c r="X43" t="n">
-        <v>909.2731541783409</v>
+        <v>931.4530568143221</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.2731541783409</v>
+        <v>710.6604776707919</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7636,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277722</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563071</v>
       </c>
       <c r="L44" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811478</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483401</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542182</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232735</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7701,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193578</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320222</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454337</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008798</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426851</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7758,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1023.336921276364</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C46" t="n">
-        <v>854.4007383484569</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D46" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953297</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442057</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927013</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931526</v>
       </c>
       <c r="T46" t="n">
-        <v>1856.541446393568</v>
+        <v>1542.890966501052</v>
       </c>
       <c r="U46" t="n">
-        <v>1567.438579519211</v>
+        <v>1253.788099626696</v>
       </c>
       <c r="V46" t="n">
-        <v>1312.754091313324</v>
+        <v>999.103611420809</v>
       </c>
       <c r="W46" t="n">
-        <v>1023.336921276364</v>
+        <v>709.6864413838484</v>
       </c>
       <c r="X46" t="n">
-        <v>1023.336921276364</v>
+        <v>481.6968904858311</v>
       </c>
       <c r="Y46" t="n">
-        <v>1023.336921276364</v>
+        <v>260.904311342301</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8301,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8471,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8544,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>246.4545694808451</v>
+        <v>48.50256772349331</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9176,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277314</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>19.79750571619184</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,10 +9649,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9881,13 +9883,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>201.9664098701116</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>260.9678829613745</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>297.8289162490798</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,16 +10834,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.01588120402241</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476941</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476938</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>141.1048718793912</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>75.60632145146275</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>183.3889571555978</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>32.6253861634295</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>52.77216054947277</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24412,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>84.85180572133191</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>123.7051100255851</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.6155320835113</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>128.3392387065629</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.26811680410414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>134.7247446382407</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>105.2833318990669</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>92.71556412602992</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>32.80528251369117</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25567,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.59472895491402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>28.3064154276437</v>
       </c>
       <c r="I43" t="n">
-        <v>77.10569400586954</v>
+        <v>96.3524204098382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.9321526700475</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>164.7576090751822</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.9321526700475</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>120.7449497621444</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>858169.5622079785</v>
+        <v>858169.5622079786</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>858169.5622079786</v>
+        <v>858169.5622079785</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>858169.5622079786</v>
+        <v>858169.5622079787</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>858169.5622079786</v>
+        <v>858169.5622079785</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049993</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417763</v>
       </c>
       <c r="F2" t="n">
-        <v>555914.5016417768</v>
+        <v>555914.5016417766</v>
       </c>
       <c r="G2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="H2" t="n">
         <v>555914.5016417765</v>
       </c>
       <c r="I2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417761</v>
       </c>
       <c r="J2" t="n">
         <v>555914.5016417765</v>
@@ -26341,19 +26343,19 @@
         <v>555914.5016417765</v>
       </c>
       <c r="L2" t="n">
-        <v>555914.5016417768</v>
+        <v>555914.5016417762</v>
       </c>
       <c r="M2" t="n">
+        <v>555914.5016417765</v>
+      </c>
+      <c r="N2" t="n">
         <v>555914.5016417763</v>
       </c>
-      <c r="N2" t="n">
-        <v>555914.5016417764</v>
-      </c>
       <c r="O2" t="n">
-        <v>555914.5016417768</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="P2" t="n">
-        <v>555914.5016417763</v>
+        <v>555914.5016417771</v>
       </c>
     </row>
     <row r="3">
@@ -26424,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499377</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499377</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
         <v>25090.7236749938</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
+        <v>25090.7236749938</v>
+      </c>
+      <c r="M4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="N4" t="n">
-        <v>25090.72367499379</v>
-      </c>
       <c r="O4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499396</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499395</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26500,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371361</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371361</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-299162.2243006866</v>
+        <v>-299162.224300686</v>
       </c>
       <c r="C6" t="n">
-        <v>290805.6549138578</v>
+        <v>290805.6549138576</v>
       </c>
       <c r="D6" t="n">
         <v>290805.6549138578</v>
       </c>
       <c r="E6" t="n">
-        <v>-292937.1542803377</v>
+        <v>-292937.1542803379</v>
       </c>
       <c r="F6" t="n">
-        <v>434440.2597130694</v>
+        <v>434440.2597130691</v>
       </c>
       <c r="G6" t="n">
         <v>434440.259713069</v>
       </c>
       <c r="H6" t="n">
-        <v>434440.2597130691</v>
+        <v>434440.259713069</v>
       </c>
       <c r="I6" t="n">
-        <v>434440.2597130691</v>
+        <v>434440.2597130685</v>
       </c>
       <c r="J6" t="n">
         <v>258017.0405204762</v>
@@ -26549,19 +26551,19 @@
         <v>434440.2597130691</v>
       </c>
       <c r="L6" t="n">
-        <v>434440.2597130693</v>
+        <v>434440.2597130687</v>
       </c>
       <c r="M6" t="n">
-        <v>304797.9448741241</v>
+        <v>304797.9448741243</v>
       </c>
       <c r="N6" t="n">
-        <v>434440.259713069</v>
+        <v>434440.2597130688</v>
       </c>
       <c r="O6" t="n">
-        <v>434440.2597130693</v>
+        <v>434440.2597130704</v>
       </c>
       <c r="P6" t="n">
-        <v>434440.2597130688</v>
+        <v>434440.2597130695</v>
       </c>
     </row>
   </sheetData>
@@ -26774,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593296</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593296</v>
       </c>
     </row>
     <row r="4">
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-1.025671488416477e-12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>53.3000871031237</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>97.65446413013007</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27582,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>134.9863473781468</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>310.0417415363289</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>61.74151045510195</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>1.009001502131838</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>16.6196167728362</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>100.8866414480753</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.171188767195758</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28068,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>139.2810233374462</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.49548950841407</v>
       </c>
     </row>
     <row r="11">
@@ -30034,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30171,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>3.534950110406498e-12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -31856,7 +31858,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32795,7 +32797,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33275,7 +33277,7 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002927</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.38101186168159</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844659</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974796</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953982</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003799</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362318</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.267349057498</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095009</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099045</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746402</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781681</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806932</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451117</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345271</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502562</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798527</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752242</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026434</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138787</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233464</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837986</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.708647897024</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905538</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238308</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.44815837589848</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462212</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430534</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311876</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742007</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297387</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.317151370202</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098814</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316427</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883109</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085996</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802165</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895877</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712198</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.2475727055303</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211228</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780292</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.38101186168159</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844659</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974796</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953982</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003799</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362318</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.267349057498</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095009</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099045</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746402</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781681</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806932</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451117</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345271</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502562</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798527</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752242</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026434</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138787</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233464</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837986</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.708647897024</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905538</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238308</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.44815837589848</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462212</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430534</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311876</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742007</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297387</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.317151370202</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098814</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316427</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883109</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085996</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802165</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895877</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712198</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.2475727055303</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211228</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780292</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35021,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35191,7 +35193,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
@@ -35659,16 +35661,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>645.216555700217</v>
+        <v>447.2645539428652</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35905,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36060,7 +36062,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.3942385378899</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200636</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36133,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306675</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>356.9887922715923</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36367,10 +36369,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36443,7 +36445,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,13 +36603,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>740.8875257003384</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36616,7 +36618,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,22 +36834,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>598.159169516775</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36923,7 +36925,7 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>836.7500320793066</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37467,7 +37469,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721702017</v>
       </c>
       <c r="M37" t="n">
         <v>347.6333793934838</v>
@@ -37543,7 +37545,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37552,16 +37554,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>313.8101860077419</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407856</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265641</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400249</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302253</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129099</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882178</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908533</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636233</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152067</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597668</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340045</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013281</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004653</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525795</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859616</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127266</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306597</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443191</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701975</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934833</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675395</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226393</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.95707114511</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789334</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407856</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265641</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923308</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302253</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129099</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359116</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908533</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636233</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152067</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597668</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340045</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013281</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004653</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525795</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859616</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127266</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306597</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443191</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701975</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934833</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675395</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226393</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.95707114511</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789334</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
